--- a/xlsx/Circular_SSUL.xlsx
+++ b/xlsx/Circular_SSUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\plate\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9157AE5-FB2C-4337-A882-322C0B09480A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1FF2E7-12CD-476B-9A72-1902BE0BF450}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24315" windowHeight="8430" xr2:uid="{4DFB328B-0D48-4615-9B34-E144E6E78B64}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>fem</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -65,6 +65,10 @@
   </si>
   <si>
     <t>w-v</t>
+  </si>
+  <si>
+    <t>1:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -117,12 +121,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,75 +449,75 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" t="s" s="1">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.20411998265592479</v>
+        <v>-0.2041199826559248</v>
       </c>
       <c r="C2">
-        <v>4072.9155442974293</v>
+        <v>1939.0374229031463</v>
       </c>
       <c r="D2">
-        <v>4.5533742457894189</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>4.578547099714954</v>
+      </c>
+      <c r="E2" t="s" s="1">
         <v>5</v>
       </c>
       <c r="F2">
-        <v>-0.20411998265592479</v>
+        <v>-0.2041199826559248</v>
       </c>
       <c r="G2">
-        <v>37585.157329947389</v>
+        <v>31723.633837056936</v>
       </c>
       <c r="H2">
-        <v>3.3513793289863307</v>
-      </c>
-      <c r="I2" s="1" t="s">
+        <v>3.9088797880357213</v>
+      </c>
+      <c r="I2" t="s" s="1">
         <v>5</v>
       </c>
       <c r="J2">
@@ -523,26 +530,26 @@
         <v>3.1202305798810825</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="1"/>
       <c r="B3">
-        <v>-0.50514997831990593</v>
+        <v>-0.5051499783199059</v>
       </c>
       <c r="C3">
-        <v>13217.958896070848</v>
+        <v>8350.767445297915</v>
       </c>
       <c r="D3">
-        <v>4.4250945047352106</v>
+        <v>4.498037931973266</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3">
-        <v>-0.50514997831990593</v>
+        <v>-0.5051499783199059</v>
       </c>
       <c r="G3">
-        <v>39431.385425945984</v>
+        <v>38766.62396489438</v>
       </c>
       <c r="H3">
-        <v>2.6016413186826202</v>
+        <v>3.0270950876582345</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3">
@@ -555,26 +562,26 @@
         <v>2.3924815167999505</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="1"/>
       <c r="B4">
-        <v>-0.80617997398388719</v>
+        <v>-0.8061799739838872</v>
       </c>
       <c r="C4">
-        <v>26405.711798099179</v>
+        <v>20636.467287871936</v>
       </c>
       <c r="D4">
-        <v>4.1279236175113869</v>
+        <v>4.283177543751444</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4">
-        <v>-0.80617997398388719</v>
+        <v>-0.8061799739838872</v>
       </c>
       <c r="G4">
-        <v>39719.500410052868</v>
+        <v>39584.51968428114</v>
       </c>
       <c r="H4">
-        <v>2.0472732702180343</v>
+        <v>2.3917822416009566</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4">
@@ -587,26 +594,26 @@
         <v>1.728479985645059</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>-1.1072099696478683</v>
       </c>
       <c r="C5">
-        <v>35447.000070514041</v>
+        <v>32088.45209487046</v>
       </c>
       <c r="D5">
-        <v>3.6418705384909433</v>
+        <v>3.8888839011284757</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5">
         <v>-1.1072099696478683</v>
       </c>
       <c r="G5">
-        <v>39802.812326808016</v>
+        <v>39759.00098711167</v>
       </c>
       <c r="H5">
-        <v>1.4500592276421436</v>
+        <v>1.8573265422633465</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5">
@@ -619,37 +626,37 @@
         <v>1.0832925198079453</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7">
-        <v>-0.20411998265592479</v>
+        <v>-0.2041199826559248</v>
       </c>
       <c r="C7">
-        <v>37.500553124989651</v>
+        <v>32.1622192966451</v>
       </c>
       <c r="D7">
-        <v>0.612619310036427</v>
+        <v>0.9748238628127164</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7">
-        <v>-0.20411998265592479</v>
+        <v>-0.2041199826559248</v>
       </c>
       <c r="G7">
-        <v>40.766203099027678</v>
+        <v>39.988351473157046</v>
       </c>
       <c r="H7">
-        <v>-7.9460899603578466E-2</v>
+        <v>0.20700077970775166</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7">
@@ -662,26 +669,26 @@
         <v>0.12326454749676766</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="B8">
-        <v>-0.50514997831990593</v>
+        <v>-0.5051499783199059</v>
       </c>
       <c r="C8">
-        <v>40.582535781347815</v>
+        <v>39.30822337674477</v>
       </c>
       <c r="D8">
-        <v>7.0920953051731572E-3</v>
+        <v>0.35998274260828084</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8">
-        <v>-0.50514997831990593</v>
+        <v>-0.5051499783199059</v>
       </c>
       <c r="G8">
-        <v>41.428216035725043</v>
+        <v>41.34184966998817</v>
       </c>
       <c r="H8">
-        <v>-0.76755290972337886</v>
+        <v>-0.5898129139941737</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8">
@@ -694,26 +701,26 @@
         <v>-0.60407121882561166</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9">
-        <v>-0.80617997398388719</v>
+        <v>-0.8061799739838872</v>
       </c>
       <c r="C9">
-        <v>41.347309745995055</v>
+        <v>41.05886357267558</v>
       </c>
       <c r="D9">
-        <v>-0.59913360095470392</v>
+        <v>-0.2674965324901272</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9">
-        <v>-0.80617997398388719</v>
+        <v>-0.8061799739838872</v>
       </c>
       <c r="G9">
-        <v>41.559374215733754</v>
+        <v>41.546309492810735</v>
       </c>
       <c r="H9">
-        <v>-1.4020221292125332</v>
+        <v>-1.2782676209672126</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9">
@@ -726,26 +733,26 @@
         <v>-1.2667844000404407</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>-1.1072099696478683</v>
       </c>
       <c r="C10">
-        <v>41.538936123200678</v>
+        <v>41.46883877260162</v>
       </c>
       <c r="D10">
-        <v>-1.2213866398657343</v>
+        <v>-0.8855183647283269</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10">
         <v>-1.1072099696478683</v>
       </c>
       <c r="G10">
-        <v>41.589829132755931</v>
+        <v>41.586683430605476</v>
       </c>
       <c r="H10">
-        <v>-2.0375895932827266</v>
+        <v>-1.9095102418878345</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10">
@@ -758,37 +765,37 @@
         <v>-1.9078570892137905</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" t="s" s="1">
         <v>7</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s" s="1">
         <v>7</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12">
-        <v>-0.20411998265592479</v>
+        <v>-0.2041199826559248</v>
       </c>
       <c r="C12">
-        <v>3.16883537307094</v>
+        <v>3.0123227285919465</v>
       </c>
       <c r="D12">
-        <v>-1.0307489507958001</v>
+        <v>-0.6026209904934001</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12">
-        <v>-0.20411998265592479</v>
+        <v>-0.2041199826559248</v>
       </c>
       <c r="G12">
-        <v>3.2107006986489046</v>
+        <v>3.170086306747271</v>
       </c>
       <c r="H12">
-        <v>-1.2898885495359458</v>
+        <v>-1.0366197828348442</v>
       </c>
       <c r="J12">
         <v>-0.20411998265592479</v>
@@ -800,26 +807,26 @@
         <v>-1.0530246860637329</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="1"/>
       <c r="B13">
-        <v>-0.50514997831990593</v>
+        <v>-0.5051499783199059</v>
       </c>
       <c r="C13">
-        <v>3.241139189617483</v>
+        <v>3.2088426101753047</v>
       </c>
       <c r="D13">
-        <v>-1.6806688244895818</v>
+        <v>-1.2744363522696038</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13">
-        <v>-0.50514997831990593</v>
+        <v>-0.5051499783199059</v>
       </c>
       <c r="G13">
-        <v>3.2510571047607537</v>
+        <v>3.2459337822698755</v>
       </c>
       <c r="H13">
-        <v>-1.9608677584344005</v>
+        <v>-1.7940863517538614</v>
       </c>
       <c r="J13">
         <v>-0.50514997831990593</v>
@@ -831,26 +838,26 @@
         <v>-1.7877021359535765</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="1"/>
       <c r="B14">
-        <v>-0.80617997398388719</v>
+        <v>-0.8061799739838872</v>
       </c>
       <c r="C14">
-        <v>3.2573861161923752</v>
+        <v>3.2497778957380885</v>
       </c>
       <c r="D14">
-        <v>-2.3359333466035599</v>
+        <v>-1.9128540158068563</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14">
-        <v>-0.80617997398388719</v>
+        <v>-0.8061799739838872</v>
       </c>
       <c r="G14">
-        <v>3.2596966748454519</v>
+        <v>3.258855680566047</v>
       </c>
       <c r="H14">
-        <v>-2.6376447494616406</v>
+        <v>-2.502473340063907</v>
       </c>
       <c r="J14">
         <v>-0.80617997398388719</v>
@@ -862,26 +869,26 @@
         <v>-2.4838376719278252</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="1"/>
       <c r="B15">
         <v>-1.1072099696478683</v>
       </c>
       <c r="C15">
-        <v>3.2611569735388755</v>
+        <v>3.2592459558107234</v>
       </c>
       <c r="D15">
-        <v>-3.0741587934179382</v>
+        <v>-2.5600290956676846</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15">
         <v>-1.1072099696478683</v>
       </c>
       <c r="G15">
-        <v>3.2617203041616278</v>
+        <v>3.261515397819551</v>
       </c>
       <c r="H15">
-        <v>-3.5533139954999302</v>
+        <v>-3.3146146361024944</v>
       </c>
       <c r="J15">
         <v>-1.1072099696478683</v>
@@ -893,27 +900,27 @@
         <v>-3.3083051930582732</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="E21" s="1"/>
     </row>
@@ -926,10 +933,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5B3F4D-1FA3-421D-A325-058CC6FF6315}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -938,72 +945,72 @@
     <col min="5" max="5" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="1">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s" s="1">
         <v>3</v>
       </c>
       <c r="F1">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s" s="1">
         <v>2</v>
       </c>
       <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s" s="1">
         <v>3</v>
       </c>
       <c r="K1" s="1">
         <v>40</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s" s="1">
         <v>2</v>
       </c>
       <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s" s="1">
         <v>3</v>
       </c>
       <c r="P1" s="1">
         <v>60</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s" s="1">
         <v>2</v>
       </c>
       <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="1"/>
       <c r="B2">
-        <v>2.1338582677165356</v>
+        <v>126.99999999999999</v>
       </c>
       <c r="C2">
         <v>-256487.45527633064</v>
@@ -1027,7 +1034,7 @@
         <v>3.3259756690972901</v>
       </c>
       <c r="L2">
-        <v>1.8082408874801901</v>
+        <v>631</v>
       </c>
       <c r="M2">
         <v>39780.811304937772</v>
@@ -1039,7 +1046,7 @@
         <v>1.7006059038980159</v>
       </c>
       <c r="Q2">
-        <v>1.882480173035328</v>
+        <v>1387</v>
       </c>
       <c r="R2">
         <v>39857.196179564482</v>
@@ -1051,9 +1058,9 @@
         <v>1.4182379586844021</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="B3">
-        <v>1.6035502958579881</v>
+        <v>169</v>
       </c>
       <c r="C3">
         <v>39741.015550376709</v>
@@ -1077,7 +1084,7 @@
         <v>1.8054571071517149</v>
       </c>
       <c r="L3">
-        <v>1.5825242718446602</v>
+        <v>721</v>
       </c>
       <c r="M3">
         <v>39796.576818166322</v>
@@ -1089,7 +1096,7 @@
         <v>1.5368510109346616</v>
       </c>
       <c r="Q3">
-        <v>1.7188940092165899</v>
+        <v>1519</v>
       </c>
       <c r="R3">
         <v>39837.726067131123</v>
@@ -1101,9 +1108,9 @@
         <v>0.82776119758029809</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="B4">
-        <v>1.2488479262672811</v>
+        <v>217</v>
       </c>
       <c r="C4">
         <v>39627.717244149215</v>
@@ -1127,7 +1134,7 @@
         <v>1.811061271142985</v>
       </c>
       <c r="L4">
-        <v>1.3965728274173808</v>
+        <v>817</v>
       </c>
       <c r="M4">
         <v>39798.172562087748</v>
@@ -1139,7 +1146,7 @@
         <v>1.5162369886083702</v>
       </c>
       <c r="Q4">
-        <v>1.5757392878696439</v>
+        <v>1657</v>
       </c>
       <c r="R4">
         <v>39815.164321421827</v>
@@ -1151,9 +1158,12 @@
         <v>1.1996366781557735</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
+      <c r="A5" t="s" s="3">
+        <v>10</v>
+      </c>
       <c r="B5">
-        <v>1</v>
+        <v>271</v>
       </c>
       <c r="C5">
         <v>39198.992426843048</v>
@@ -1177,7 +1187,7 @@
         <v>1.9255708479232665</v>
       </c>
       <c r="L5">
-        <v>1.2415669205658324</v>
+        <v>919</v>
       </c>
       <c r="M5">
         <v>39791.647283734164</v>
@@ -1189,7 +1199,7 @@
         <v>1.5949747142948469</v>
       </c>
       <c r="Q5">
-        <v>1.4497501388117713</v>
+        <v>1801</v>
       </c>
       <c r="R5">
         <v>39821.542928517621</v>
@@ -1201,9 +1211,9 @@
         <v>0.9757566717142212</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="B6">
-        <v>0.81873111782477337</v>
+        <v>331</v>
       </c>
       <c r="C6">
         <v>38131.196344213255</v>
@@ -1227,7 +1237,7 @@
         <v>2.4072934139080044</v>
       </c>
       <c r="L6">
-        <v>1.1110029211295034</v>
+        <v>1027</v>
       </c>
       <c r="M6">
         <v>39778.95655480097</v>
@@ -1239,7 +1249,7 @@
         <v>1.7163660384929758</v>
       </c>
       <c r="Q6">
-        <v>1.3382880574064582</v>
+        <v>1951</v>
       </c>
       <c r="R6">
         <v>39816.076357407022</v>
@@ -1251,9 +1261,9 @@
         <v>1.1738748395542438</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="B7">
-        <v>0.68261964735516378</v>
+        <v>396.99999999999994</v>
       </c>
       <c r="C7">
         <v>37466.869692783228</v>
@@ -1276,8 +1286,11 @@
       <c r="J7">
         <v>2.8324838278802802</v>
       </c>
+      <c r="K7" t="s" s="3">
+        <v>10</v>
+      </c>
       <c r="L7">
-        <v>1</v>
+        <v>1141</v>
       </c>
       <c r="M7">
         <v>39665.76718665837</v>
@@ -1289,7 +1302,7 @@
         <v>2.2180962974522878</v>
       </c>
       <c r="Q7">
-        <v>1.239202657807309</v>
+        <v>2107</v>
       </c>
       <c r="R7">
         <v>39814.238319933647</v>
@@ -1301,9 +1314,9 @@
         <v>1.2243175469301746</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="B8">
-        <v>0.57782515991471217</v>
+        <v>469</v>
       </c>
       <c r="C8">
         <v>36921.202822860818</v>
@@ -1327,7 +1340,7 @@
         <v>2.9322597946984379</v>
       </c>
       <c r="L8">
-        <v>0.90483743061062649</v>
+        <v>1261</v>
       </c>
       <c r="M8">
         <v>39451.132130203718</v>
@@ -1339,7 +1352,7 @@
         <v>2.5796325613612701</v>
       </c>
       <c r="Q8">
-        <v>1.1507271925958571</v>
+        <v>2269</v>
       </c>
       <c r="R8">
         <v>39805.120523641635</v>
@@ -1351,9 +1364,9 @@
         <v>1.4129554846329277</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="B9">
-        <v>0.49542961608775138</v>
+        <v>547</v>
       </c>
       <c r="C9">
         <v>35880.958322270017</v>
@@ -1377,7 +1390,7 @@
         <v>2.9769921663113625</v>
       </c>
       <c r="L9">
-        <v>0.82263878875270369</v>
+        <v>1387</v>
       </c>
       <c r="M9">
         <v>39398.261676457107</v>
@@ -1389,7 +1402,7 @@
         <v>2.636225358259034</v>
       </c>
       <c r="Q9">
-        <v>1.0713992613869512</v>
+        <v>2437</v>
       </c>
       <c r="R9">
         <v>39796.333795438994</v>
@@ -1401,7 +1414,7 @@
         <v>1.5399062954076979</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="G10">
         <v>0.6144109055501461</v>
       </c>
@@ -1415,7 +1428,7 @@
         <v>3.0907622886858386</v>
       </c>
       <c r="L10">
-        <v>0.75115207373271886</v>
+        <v>1519</v>
       </c>
       <c r="M10">
         <v>39324.916351539054</v>
@@ -1426,8 +1439,11 @@
       <c r="O10">
         <v>2.7042223055010361</v>
       </c>
+      <c r="P10" t="s" s="3">
+        <v>10</v>
+      </c>
       <c r="Q10">
-        <v>1</v>
+        <v>2611</v>
       </c>
       <c r="R10">
         <v>39752.104079239987</v>
@@ -1439,9 +1455,9 @@
         <v>1.8970545489988342</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="L11">
-        <v>0.68859384429692216</v>
+        <v>1657</v>
       </c>
       <c r="M11">
         <v>39265.585765356795</v>
@@ -1453,7 +1469,7 @@
         <v>2.7523667379157528</v>
       </c>
       <c r="Q11">
-        <v>0.93550698674310284</v>
+        <v>2791</v>
       </c>
       <c r="R11">
         <v>39694.186791611086</v>
@@ -1465,9 +1481,9 @@
         <v>2.1361280275998094</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="Q12">
-        <v>0.87705744037621769</v>
+        <v>2977</v>
       </c>
       <c r="R12">
         <v>39665.201129173001</v>
@@ -1479,9 +1495,9 @@
         <v>2.2195815684623033</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="Q13">
-        <v>0.77546777546777546</v>
+        <v>3367</v>
       </c>
       <c r="R13">
         <v>39625.937476266343</v>
@@ -1493,9 +1509,9 @@
         <v>2.3118862979947776</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="Q14">
-        <v>0.69055805342501986</v>
+        <v>3781</v>
       </c>
       <c r="R14">
         <v>39589.218599401596</v>
@@ -1505,39 +1521,6 @@
       </c>
       <c r="T14">
         <v>2.3834228890468228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="H15">
-        <v>-0.6020599913279624</v>
-      </c>
-      <c r="I15">
-        <v>39681.628474214165</v>
-      </c>
-      <c r="J15">
-        <v>2.1742678172071073</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="H16">
-        <v>-0.90308998699194354</v>
-      </c>
-      <c r="I16">
-        <v>39797.840446091701</v>
-      </c>
-      <c r="J16">
-        <v>1.5206086794033489</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H17">
-        <v>-1.0791812460476249</v>
-      </c>
-      <c r="I17">
-        <v>39817.078269778176</v>
-      </c>
-      <c r="J17">
-        <v>1.1436932136577542</v>
       </c>
     </row>
   </sheetData>
